--- a/biology/Zoologie/George_Kruck_Cherrie/George_Kruck_Cherrie.xlsx
+++ b/biology/Zoologie/George_Kruck_Cherrie/George_Kruck_Cherrie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Kruck Cherrie est un naturaliste américain, né en 1865 dans l'Iowa et mort en 1946.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l’automne 1894, il est employé comme conservateur-assistant en ornithologie au sein du Field Museum of Natural History, qui vient d’ouvrir. Il conserve cette fonction jusqu’en 1897. Il prend part à environ quarante expéditions, principalement en Amérique du Sud et centrale, y compris l’expédition scientifique Roosevelt-Rondon en 1913-1914 au cours de laquelle Cherrie récolte des spécimens d’histoire naturelle pour l'American Museum of Natural History. En 1915, il se rend en Bolivie dans l’expédition Alfred Collins-Garnet Day. Cherrie conte ses expériences dans ses mémoires, Dark Trails: Adventures of a Naturalist, en 1930. Le myrmidon de Cherrie, Myrmotherula cherriei, lui est dédié par Hans von Berlepsch (1850-1915) et Ernst Hartert (1859-1933) en 1902.
 </t>
@@ -542,7 +556,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Traduction de l'article de langue anglaise de Wikipédia (version du 29 août 2006).
 Wilfred Hudson Osgood (1922). In Memoriam : Charles Barney Cory, The Auk, XXXIX (2) : 151-166.</t>
